--- a/Documents/BusBooking.xlsx
+++ b/Documents/BusBooking.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceGit\ProjectHK3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceGit\BusBooking_Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23A1516-2290-4DD2-B9BD-EBF2CFB303E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BF0B4B-041A-440C-AD14-F9D966E3C890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E18E4C5C-F362-4F3B-8F72-FE516A985466}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E18E4C5C-F362-4F3B-8F72-FE516A985466}"/>
   </bookViews>
   <sheets>
     <sheet name="Phân tích" sheetId="1" r:id="rId1"/>
+    <sheet name="Database" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Đối Tượng</t>
   </si>
@@ -73,32 +73,10 @@
     <t>Chức năng</t>
   </si>
   <si>
-    <t>Chi tiết xe bus và nhân viên được Admin quản lý</t>
-  </si>
-  <si>
-    <t>Nhân viên có thể thay đổi pass</t>
-  </si>
-  <si>
-    <t>Nhân viên muốn book thì bắt buộc phải login</t>
-  </si>
-  <si>
-    <t>Tính toán tiền được thực hiện bởi ứng dụng của admin</t>
-  </si>
-  <si>
-    <t>Chi tiết xe bus, ghế ngồi và nhân viên được Admin quản lý</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form yêu cầu, form đặt phòng và danh sách
- giá được chia ra từng page </t>
-  </si>
-  <si>
-    <t>Có các chức năng: CRUD và search</t>
-  </si>
-  <si>
     <t>Kết hợp 1 service online nơi họ có thể duy trì hồ sơ của xe cùng với các chi tiết của khách hàng.
 +) Khách hàng có thể đặt vé bằng cách đi đến các quầy đặt vé. Ứng dụng được liên kết với CSDL
 để những chi tiết nào được nhập vào: chi tiết khách hàng, xe buýt và đặt chỗ có thể được xem 
-bởi các trung tâm khác(API). Ứng dụng cho phép khách hàng đăng ký với các trang web và đặt vé
+bởi các trung tâm khác(API). Ứng dụng cho phép khách hàng tìm kiếm thông tin về chuyến xe từ trang web
 thay vì phải đến quầy hàng. 
 +) CSDL lưu trữ chi tiết về xe, tuyến đường, khoảng cách và thời gian. 
 +) Có thể tìm kiếm thông tin của khách hàng dựa trên tên, tuổi, nơi đi-đến, thời gian có thể dựa trên xe buýt mà khách hàng đã chọn.
@@ -115,12 +93,134 @@
 +) Admin quản lý danh sach xe bus và nhân viên, nhân viên ko đk có quyền truy cập. Có thể update password
 +) Các khoản phí khác khau phụ thuộc vào loại xe bus được chọn, khoảng cách và cả tuổi. Bảng giá được Admin cập nhật.</t>
   </si>
+  <si>
+    <t>Chi tiết xe bus và nhân viên được Admin quản lý. 
+Nhân viên booking có thể book được vé</t>
+  </si>
+  <si>
+    <t>Nhân viên muốn book phòng thì phải login</t>
+  </si>
+  <si>
+    <t>Các page chi tiết của nv sẽ có các nút(New, Update, Remove, Search)</t>
+  </si>
+  <si>
+    <t>Khách hàng cần vào page Booking để hỏi hoặc đặt vé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ds xe buýt. Mỗi xe sẽ được gán 1 mã gồm 5 chữ số </t>
+  </si>
+  <si>
+    <t>Khi một nhân viên đăng nhập sẽ phải nhập 1 mã 6 số(auto generate)</t>
+  </si>
+  <si>
+    <t>Thông tin của nhân viên cần được lưu lại</t>
+  </si>
+  <si>
+    <t>Có 1 form yêu cầu, form đặt phòng và cũng là page có các tùy chọn phù hợp.
+Bảng giá sẽ được tách ra riêng, Muốn xem chi tiết của giá bằng cách nhập thông tin(điểm đến, tuổi, số ghế,...)</t>
+  </si>
+  <si>
+    <t>Table Name</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã để liên kết các table khác </t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>Mã xe bus(5 chữ số)</t>
+  </si>
+  <si>
+    <t>Seat</t>
+  </si>
+  <si>
+    <t>Số ghế của xe</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>Giá vé tiền của xe</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Màu sắc của xe</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>Tình trạng xe bus</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Tình trạng xe có hoạt động nữa hay không</t>
+  </si>
+  <si>
+    <t>Mã quyền</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>Tên quyền</t>
+  </si>
+  <si>
+    <t>Tình trạng quyền</t>
+  </si>
+  <si>
+    <t>Tình trạng quyền có còn trong công ty không</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Mã người dùng</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +228,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +280,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6F250"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC72B9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF16C7E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD69B84"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF86262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -298,129 +442,279 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,6 +724,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF86262"/>
+      <color rgb="FF16C7E4"/>
+      <color rgb="FFD69B84"/>
+      <color rgb="FFCD8669"/>
+      <color rgb="FFCC72B9"/>
+      <color rgb="FFE6F250"/>
       <color rgb="FF1EA221"/>
       <color rgb="FF3C0DB3"/>
     </mruColors>
@@ -742,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E179E39-F844-4D5D-9EC8-BDFC544D7615}">
-  <dimension ref="B2:T25"/>
+  <dimension ref="B2:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -753,7 +1053,7 @@
     <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
@@ -780,189 +1080,189 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="K3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="30"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="K3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="32"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="33"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="35"/>
     </row>
     <row r="5" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="33"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="35"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="33"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="33"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="33"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="33"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
     </row>
     <row r="10" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="33"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="33"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
@@ -971,28 +1271,28 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="35"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="35"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
@@ -1004,267 +1304,696 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="35"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="33"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="35"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="19">
+      <c r="B16" s="13">
         <v>1</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="33"/>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="35"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B17" s="20">
+      <c r="B17" s="15"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="35"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
         <v>2</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="33"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B18" s="20">
+      <c r="C18" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="35"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
         <v>3</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="33"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B19" s="20">
+      <c r="C19" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="35"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
         <v>4</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="33"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B20" s="20">
+      <c r="C20" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="35"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
         <v>5</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="33"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B21" s="20">
+      <c r="C21" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="35"/>
+    </row>
+    <row r="22" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
         <v>6</v>
       </c>
-      <c r="C21" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="33"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B22" s="20">
+      <c r="C22" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="45"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="35"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
         <v>7</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="33"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B23" s="21">
+      <c r="C23" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="35"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" s="13">
         <v>8</v>
       </c>
-      <c r="C23" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="33"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="K24" s="31"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="33"/>
+      <c r="C24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="35"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="K25" s="34"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="36"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="35"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="38"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B27" s="15"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="K3:T25"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H22"/>
+  <mergeCells count="21">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C16:H17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C22:H22"/>
     <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H27"/>
+    <mergeCell ref="B24:B27"/>
     <mergeCell ref="K2:T2"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="C3:H4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C5:H9"/>
     <mergeCell ref="B5:B9"/>
+    <mergeCell ref="K3:T26"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
     <mergeCell ref="C10:H11"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB51E80-F86F-4BE7-B847-B4005D86C030}">
+  <dimension ref="E3:S16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="E3" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+    </row>
+    <row r="4" spans="5:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+    </row>
+    <row r="5" spans="5:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+    </row>
+    <row r="6" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+    </row>
+    <row r="7" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+    </row>
+    <row r="8" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+    </row>
+    <row r="9" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+    </row>
+    <row r="10" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+    </row>
+    <row r="11" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+    </row>
+    <row r="12" spans="5:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+    </row>
+    <row r="13" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+    </row>
+    <row r="14" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+    </row>
+    <row r="15" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+    </row>
+    <row r="16" spans="5:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="E12:G15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:S12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:S11"/>
+    <mergeCell ref="E4:G11"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:S3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="H6:J6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/BusBooking.xlsx
+++ b/Documents/BusBooking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceGit\BusBooking_Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BF0B4B-041A-440C-AD14-F9D966E3C890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC88F0D-BCBD-4C11-ADEB-B06327D7B489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E18E4C5C-F362-4F3B-8F72-FE516A985466}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E18E4C5C-F362-4F3B-8F72-FE516A985466}"/>
   </bookViews>
   <sheets>
     <sheet name="Phân tích" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="117">
   <si>
     <t>Đối Tượng</t>
   </si>
@@ -162,21 +162,6 @@
     <t>Số ghế của xe</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>Giá vé tiền của xe</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Màu sắc của xe</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
@@ -213,7 +198,222 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Mã người dùng</t>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Quận/Huyện</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>RoleId</t>
+  </si>
+  <si>
+    <t>Tên nhân viên</t>
+  </si>
+  <si>
+    <t>Email nhân viên</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Mật khẩu account</t>
+  </si>
+  <si>
+    <t>Ngày sinh nhân viên</t>
+  </si>
+  <si>
+    <t>Phường/xã</t>
+  </si>
+  <si>
+    <t>Thành phố</t>
+  </si>
+  <si>
+    <t>sdt</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Ảnh profile</t>
+  </si>
+  <si>
+    <t>DayCreate</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>Ngày tạo</t>
+  </si>
+  <si>
+    <t>DayEdited</t>
+  </si>
+  <si>
+    <t>Datetime</t>
+  </si>
+  <si>
+    <t>Ngày được edit</t>
+  </si>
+  <si>
+    <t>EditerId</t>
+  </si>
+  <si>
+    <t>Người edit</t>
+  </si>
+  <si>
+    <t>Tình trạng tài khoản</t>
+  </si>
+  <si>
+    <t>Tài khoản còn hoạt động hay k</t>
+  </si>
+  <si>
+    <t>Ghi Chú</t>
+  </si>
+  <si>
+    <t>ForgotPass</t>
+  </si>
+  <si>
+    <t>Mã để forgot pass</t>
+  </si>
+  <si>
+    <t>Các khoản phí phụ thuộc vào loại xe đã chọn, khoảng cách đi lại và độ tuổi của khách. Web sẽ tính và báo lại với KH để xác nhận. 
+Bảng giá sẽ được Admin cập nhập.
+Vấn đề hoàn trả tiền cho khách sẽ được Admin xác nhận và việc tính toán sẽ dựa trên ngày mà khách trả so với ngày xe chậy</t>
+  </si>
+  <si>
+    <t>Mã book xe</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>DayStart</t>
+  </si>
+  <si>
+    <t>Ngày đi</t>
+  </si>
+  <si>
+    <t>DayEnd</t>
+  </si>
+  <si>
+    <t>Ngày về(Nếu có)</t>
+  </si>
+  <si>
+    <t>Mã Admin, nhân viên, khách hàng</t>
+  </si>
+  <si>
+    <t>UserEmp
+(admin, employee, user)
+Có 1 số thuộc tính đối tượng không cần thì cho phép để null</t>
+  </si>
+  <si>
+    <t>SeatEmpty</t>
+  </si>
+  <si>
+    <t>Số ghế trống trên xe</t>
+  </si>
+  <si>
+    <t>Địa điểm đi</t>
+  </si>
+  <si>
+    <t>Địa điểm đến</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>BusId</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>Tên trạm</t>
+  </si>
+  <si>
+    <t>Địa điểm các chi nhánh</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>Mã khách hàng</t>
+  </si>
+  <si>
+    <t>quantityTicket</t>
+  </si>
+  <si>
+    <t>Số lượng vé:
++) 1 người có thể mua nhiều vé trên 1 xe nên khi sl vé này &gt; 1 thì sẽ show ra số form tương ứng(tên, tuổi) để điền thông tin những người đi cùng</t>
+  </si>
+  <si>
+    <t>FromAddress(city, district, ward)</t>
+  </si>
+  <si>
+    <t>ToAddress(city, district, ward)</t>
+  </si>
+  <si>
+    <t>Tình trạng đã được duyệt hay chưa</t>
+  </si>
+  <si>
+    <t>PaymentStatus</t>
+  </si>
+  <si>
+    <t>Tình trạng đã thanh toán hay chưa</t>
+  </si>
+  <si>
+    <t>Mã vé</t>
+  </si>
+  <si>
+    <t>BookingId</t>
+  </si>
+  <si>
+    <t>Mã đặt vé</t>
+  </si>
+  <si>
+    <t>Mã xe bus</t>
+  </si>
+  <si>
+    <t>UserId2</t>
+  </si>
+  <si>
+    <t>Người mua vé hộ(nếu có)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Nhân viên có thể thay đổi password</t>
   </si>
 </sst>
 </file>
@@ -306,18 +506,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD69B84"/>
+        <fgColor rgb="FFF86262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF86262"/>
+        <fgColor rgb="FFDFB09D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -458,43 +658,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -523,11 +686,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -536,60 +786,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -599,21 +830,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -644,32 +863,32 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -677,44 +896,146 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,11 +1045,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDFB09D"/>
+      <color rgb="FF16C7E4"/>
       <color rgb="FFF86262"/>
-      <color rgb="FF16C7E4"/>
       <color rgb="FFD69B84"/>
+      <color rgb="FFCC72B9"/>
       <color rgb="FFCD8669"/>
-      <color rgb="FFCC72B9"/>
       <color rgb="FFE6F250"/>
       <color rgb="FF1EA221"/>
       <color rgb="FF3C0DB3"/>
@@ -1042,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E179E39-F844-4D5D-9EC8-BDFC544D7615}">
-  <dimension ref="B2:T27"/>
+  <dimension ref="B2:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:H20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1057,212 +1379,212 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="K2" s="16" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="K2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="K3" s="30" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="K3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="32"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="23"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="35"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="26"/>
     </row>
     <row r="5" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="35"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="26"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="28"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="26"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="28"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="26"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="28"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="26"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="26"/>
     </row>
     <row r="10" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="35"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="26"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="35"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="26"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
@@ -1271,332 +1593,406 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="35"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="26"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="35"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="26"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="35"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="26"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="35"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="26"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="13">
+      <c r="B16" s="48">
         <v>1</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="35"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="26"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="35"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="26"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>2</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="35"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="26"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>3</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="35"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="26"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>4</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="35"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="26"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>5</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="35"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="26"/>
     </row>
     <row r="22" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>6</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="45"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="35"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="26"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>7</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="35"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="26"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B24" s="13">
+      <c r="B24" s="48">
         <v>8</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="35"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="26"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="35"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="26"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="38"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="29"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B27" s="15"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+    </row>
+    <row r="28" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="48">
+        <v>9</v>
+      </c>
+      <c r="C28" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B29" s="48"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B30" s="48"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B31" s="48"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B32" s="48"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="48"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="48"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="3">
+        <v>10</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C16:H17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H27"/>
-    <mergeCell ref="B24:B27"/>
+  <mergeCells count="24">
+    <mergeCell ref="C35:H35"/>
     <mergeCell ref="K2:T2"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="C3:H4"/>
@@ -1611,6 +2007,15 @@
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="C10:H11"/>
+    <mergeCell ref="C28:H34"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C16:H17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H27"/>
+    <mergeCell ref="B24:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1618,69 +2023,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB51E80-F86F-4BE7-B847-B4005D86C030}">
-  <dimension ref="E3:S16"/>
+  <dimension ref="E3:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="27" max="27" width="14.88671875" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" customWidth="1"/>
+    <col min="32" max="32" width="10.109375" customWidth="1"/>
+    <col min="33" max="33" width="15.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E3" s="49" t="s">
+    <row r="3" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-    </row>
-    <row r="4" spans="5:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="51" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="W3" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+    </row>
+    <row r="4" spans="5:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="61" t="s">
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62" t="s">
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="63" t="s">
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-    </row>
-    <row r="5" spans="5:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="53" t="s">
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="W4" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+    </row>
+    <row r="5" spans="5:33" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="54" t="s">
         <v>27</v>
       </c>
@@ -1694,304 +2144,1339 @@
       <c r="Q5" s="55"/>
       <c r="R5" s="55"/>
       <c r="S5" s="55"/>
-    </row>
-    <row r="6" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53" t="s">
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+    </row>
+    <row r="6" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="54" t="s">
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="55" t="s">
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-    </row>
-    <row r="7" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53" t="s">
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+    </row>
+    <row r="7" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+    </row>
+    <row r="8" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54" t="s">
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="55" t="s">
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-    </row>
-    <row r="8" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53" t="s">
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+    </row>
+    <row r="9" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54" t="s">
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="55" t="s">
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-    </row>
-    <row r="9" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53" t="s">
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+    </row>
+    <row r="10" spans="5:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54" t="s">
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+    </row>
+    <row r="11" spans="5:33" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+    </row>
+    <row r="12" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+    </row>
+    <row r="13" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+    </row>
+    <row r="14" spans="5:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+    </row>
+    <row r="15" spans="5:33" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+    </row>
+    <row r="16" spans="5:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="58"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+    </row>
+    <row r="17" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E17" s="58"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-    </row>
-    <row r="10" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53" t="s">
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+    </row>
+    <row r="18" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E18" s="58"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+    </row>
+    <row r="19" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E19" s="58"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+    </row>
+    <row r="20" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E20" s="58"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+    </row>
+    <row r="21" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E21" s="58"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+    </row>
+    <row r="22" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E22" s="58"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="W22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="39"/>
+    </row>
+    <row r="23" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E23" s="58"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+    </row>
+    <row r="24" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E24" s="58"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+    </row>
+    <row r="25" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E25" s="58"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+    </row>
+    <row r="26" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E26" s="58"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+    </row>
+    <row r="27" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E27" s="58"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+    </row>
+    <row r="28" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E28" s="58"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+    </row>
+    <row r="29" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E29" s="58"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54" t="s">
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+    </row>
+    <row r="30" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E30" s="58"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="W30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="38"/>
+      <c r="AE30" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF30" s="39"/>
+      <c r="AG30" s="39"/>
+    </row>
+    <row r="31" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E31" s="58"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+    </row>
+    <row r="32" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="E32" s="58"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+    </row>
+    <row r="33" spans="5:31" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="76"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+    </row>
+    <row r="34" spans="5:31" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="75"/>
+    </row>
+    <row r="35" spans="5:31" x14ac:dyDescent="0.3">
+      <c r="E35" s="61"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="55" t="s">
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-    </row>
-    <row r="11" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-    </row>
-    <row r="12" spans="5:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="53" t="s">
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+    </row>
+    <row r="36" spans="5:31" x14ac:dyDescent="0.3">
+      <c r="E36" s="61"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+    </row>
+    <row r="37" spans="5:31" x14ac:dyDescent="0.3">
+      <c r="E37" s="61"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+    </row>
+    <row r="38" spans="5:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="81"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="54" t="s">
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-    </row>
-    <row r="13" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-    </row>
-    <row r="14" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-    </row>
-    <row r="15" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-    </row>
-    <row r="16" spans="5:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60" t="s">
+      <c r="L38" s="84"/>
+      <c r="M38" s="84"/>
+      <c r="N38" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="O38" s="85"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="85"/>
+      <c r="R38" s="85"/>
+      <c r="S38" s="85"/>
+    </row>
+    <row r="39" spans="5:31" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="31"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="55"/>
+    </row>
+    <row r="40" spans="5:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+    </row>
+    <row r="41" spans="5:31" x14ac:dyDescent="0.3">
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+    </row>
+    <row r="42" spans="5:31" x14ac:dyDescent="0.3">
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+    </row>
+    <row r="43" spans="5:31" x14ac:dyDescent="0.3">
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-    </row>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="51"/>
+    </row>
+    <row r="44" spans="5:31" x14ac:dyDescent="0.3">
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="52"/>
+    </row>
+    <row r="45" spans="5:31" x14ac:dyDescent="0.3">
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="52"/>
+      <c r="S45" s="52"/>
+    </row>
+    <row r="46" spans="5:31" x14ac:dyDescent="0.3">
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="52"/>
+      <c r="S46" s="52"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+    </row>
+    <row r="47" spans="5:31" x14ac:dyDescent="0.3">
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+    </row>
+    <row r="48" spans="5:31" x14ac:dyDescent="0.3">
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="52"/>
+      <c r="R48" s="52"/>
+      <c r="S48" s="52"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4"/>
+    </row>
+    <row r="49" spans="5:31" x14ac:dyDescent="0.3">
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="O49" s="51"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="51"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+    </row>
+    <row r="50" spans="5:31" x14ac:dyDescent="0.3">
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="51"/>
+      <c r="S50" s="51"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="4"/>
+    </row>
+    <row r="51" spans="5:31" x14ac:dyDescent="0.3">
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+    </row>
+    <row r="52" spans="5:31" x14ac:dyDescent="0.3">
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+    </row>
+    <row r="56" spans="5:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="E12:G15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:S16"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:S14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:S12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:S13"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:S11"/>
-    <mergeCell ref="E4:G11"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:S10"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:S8"/>
+  <mergeCells count="161">
+    <mergeCell ref="E39:G51"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:S32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:S30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:S31"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:S28"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="E15:G33"/>
+    <mergeCell ref="E34:G38"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:S3"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:S4"/>
-    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="N5:S5"/>
     <mergeCell ref="H6:J6"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="E4:G10"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="N36:S36"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N34:S34"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="N11:S11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:S12"/>
+    <mergeCell ref="E11:G14"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:S27"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="AE30:AG30"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="W4:X8"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N35:S35"/>
+    <mergeCell ref="N37:S37"/>
+    <mergeCell ref="N38:S38"/>
+    <mergeCell ref="N39:S39"/>
+    <mergeCell ref="N40:S40"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:S42"/>
+    <mergeCell ref="N43:S43"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="N51:S51"/>
+    <mergeCell ref="N44:S48"/>
+    <mergeCell ref="N50:S50"/>
+    <mergeCell ref="N49:S49"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="H44:J48"/>
+    <mergeCell ref="K44:M48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:M50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
